--- a/excel/int_95_ocupacion.xlsx
+++ b/excel/int_95_ocupacion.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[23.84442928160329, 24.341122829215713]</t>
+          <t>[49.52150200266494, 50.64026813147661]</t>
         </is>
       </c>
     </row>
